--- a/単体テストエビデンス/タスク管理(登録)カバレッジレポート.xlsx
+++ b/単体テストエビデンス/タスク管理(登録)カバレッジレポート.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475150B5-9BC4-4BAA-9BF4-D6F8C2EAFAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F65E40-284B-48DA-B4BC-6A51FF05E2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>（１）概要</t>
     <rPh sb="3" eb="5">
@@ -90,6 +91,10 @@
   </si>
   <si>
     <t>TaskRegisterDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskEditDAO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -431,6 +436,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>16916</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>74824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B68472-9B52-E8E6-5917-F1EE8923B2D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694764" y="2745442"/>
+          <a:ext cx="8802328" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -696,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D548D774-3864-483D-B70A-8A3BD304B9C2}">
   <dimension ref="A1:BA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2478,4 +2532,1789 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616A29A6-E4F9-4B1E-A989-8DF79DB143C5}">
+  <dimension ref="A1:BA46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:S5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.625" style="1"/>
+    <col min="3" max="3" width="2.625" style="5"/>
+    <col min="4" max="5" width="2.625" style="1"/>
+    <col min="6" max="6" width="2.625" style="5"/>
+    <col min="7" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="22">
+        <v>45890</v>
+      </c>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+    </row>
+    <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+    </row>
+    <row r="5" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
+    </row>
+    <row r="6" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
+    </row>
+    <row r="7" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="20"/>
+    </row>
+    <row r="10" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="BA10" s="16"/>
+    </row>
+    <row r="11" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="BA11" s="16"/>
+    </row>
+    <row r="12" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="BA12" s="16"/>
+    </row>
+    <row r="13" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="BA13" s="16"/>
+    </row>
+    <row r="14" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="BA14" s="16"/>
+    </row>
+    <row r="15" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="BA15" s="16"/>
+    </row>
+    <row r="16" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="BA16" s="16"/>
+    </row>
+    <row r="17" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="BA17" s="16"/>
+    </row>
+    <row r="18" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="BA18" s="16"/>
+    </row>
+    <row r="19" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="BA19" s="16"/>
+    </row>
+    <row r="20" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="BA20" s="16"/>
+    </row>
+    <row r="21" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="BA21" s="16"/>
+    </row>
+    <row r="22" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="BA22" s="16"/>
+    </row>
+    <row r="23" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="BA23" s="16"/>
+    </row>
+    <row r="24" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="BA24" s="16"/>
+    </row>
+    <row r="25" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="BA25" s="16"/>
+    </row>
+    <row r="26" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="BA26" s="16"/>
+    </row>
+    <row r="27" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="BA27" s="16"/>
+    </row>
+    <row r="28" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="BA28" s="16"/>
+    </row>
+    <row r="29" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="BA29" s="16"/>
+    </row>
+    <row r="30" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="BA30" s="16"/>
+    </row>
+    <row r="31" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="BA31" s="16"/>
+    </row>
+    <row r="32" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="BA32" s="16"/>
+    </row>
+    <row r="33" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="BA33" s="16"/>
+    </row>
+    <row r="34" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19"/>
+      <c r="BA34" s="20"/>
+    </row>
+    <row r="35" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="BA35" s="16"/>
+    </row>
+    <row r="36" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="BA36" s="16"/>
+    </row>
+    <row r="37" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="BA37" s="16"/>
+    </row>
+    <row r="38" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="BA38" s="16"/>
+    </row>
+    <row r="39" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="BA39" s="16"/>
+    </row>
+    <row r="40" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="BA40" s="16"/>
+    </row>
+    <row r="41" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="BA41" s="16"/>
+    </row>
+    <row r="42" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="11"/>
+      <c r="BA42" s="16"/>
+    </row>
+    <row r="43" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="19"/>
+      <c r="AK43" s="19"/>
+      <c r="AL43" s="19"/>
+      <c r="AM43" s="19"/>
+      <c r="AN43" s="19"/>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="19"/>
+      <c r="AQ43" s="19"/>
+      <c r="AR43" s="19"/>
+      <c r="AS43" s="19"/>
+      <c r="AT43" s="19"/>
+      <c r="AU43" s="19"/>
+      <c r="AV43" s="19"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="19"/>
+      <c r="AY43" s="19"/>
+      <c r="AZ43" s="19"/>
+      <c r="BA43" s="19"/>
+    </row>
+    <row r="44" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="11"/>
+      <c r="BA44" s="16"/>
+    </row>
+    <row r="45" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="BA45" s="16"/>
+    </row>
+    <row r="46" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="2"/>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A9:BA9"/>
+    <mergeCell ref="A34:BA34"/>
+    <mergeCell ref="A43:BA43"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:S5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:S6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AS1" xr:uid="{3E6CC7F6-358C-4848-BC54-401BBA14250C}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:O1 I1:L1 A44:AK46 G5:G6 V1 AC1 AE1 A35:AK42 A10:AK33" xr:uid="{FAEBC7C5-9138-4B14-9F6F-B865DE8A1492}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/単体テストエビデンス/タスク管理(登録)カバレッジレポート.xlsx
+++ b/単体テストエビデンス/タスク管理(登録)カバレッジレポート.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F65E40-284B-48DA-B4BC-6A51FF05E2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7BC77F-B25D-475B-AB2F-10A32C496DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="TaskEditDAOTest" sheetId="3" r:id="rId2"/>
+    <sheet name="UserDAOTest" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>（１）概要</t>
     <rPh sb="3" eb="5">
@@ -95,6 +96,10 @@
   </si>
   <si>
     <t>TaskEditDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDAO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -485,6 +490,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>123440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>279338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDF8D09-30EA-DA24-1510-E5AC23FCC4C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="526677" y="3462618"/>
+          <a:ext cx="9278645" cy="2229161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2538,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616A29A6-E4F9-4B1E-A989-8DF79DB143C5}">
   <dimension ref="A1:BA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:S5"/>
     </sheetView>
   </sheetViews>
@@ -4317,4 +4371,1789 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2D0A4B-90C9-4555-A05D-28B8CF7235C2}">
+  <dimension ref="A1:BA46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK27" sqref="AK27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.625" style="1"/>
+    <col min="3" max="3" width="2.625" style="5"/>
+    <col min="4" max="5" width="2.625" style="1"/>
+    <col min="6" max="6" width="2.625" style="5"/>
+    <col min="7" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="22">
+        <v>45894</v>
+      </c>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+    </row>
+    <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+    </row>
+    <row r="5" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
+    </row>
+    <row r="6" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
+    </row>
+    <row r="7" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="20"/>
+    </row>
+    <row r="10" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="BA10" s="16"/>
+    </row>
+    <row r="11" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="BA11" s="16"/>
+    </row>
+    <row r="12" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="BA12" s="16"/>
+    </row>
+    <row r="13" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="BA13" s="16"/>
+    </row>
+    <row r="14" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="BA14" s="16"/>
+    </row>
+    <row r="15" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="BA15" s="16"/>
+    </row>
+    <row r="16" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="BA16" s="16"/>
+    </row>
+    <row r="17" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="BA17" s="16"/>
+    </row>
+    <row r="18" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="BA18" s="16"/>
+    </row>
+    <row r="19" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="BA19" s="16"/>
+    </row>
+    <row r="20" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="BA20" s="16"/>
+    </row>
+    <row r="21" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="BA21" s="16"/>
+    </row>
+    <row r="22" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="BA22" s="16"/>
+    </row>
+    <row r="23" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="BA23" s="16"/>
+    </row>
+    <row r="24" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="BA24" s="16"/>
+    </row>
+    <row r="25" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="BA25" s="16"/>
+    </row>
+    <row r="26" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="BA26" s="16"/>
+    </row>
+    <row r="27" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="BA27" s="16"/>
+    </row>
+    <row r="28" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="BA28" s="16"/>
+    </row>
+    <row r="29" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="BA29" s="16"/>
+    </row>
+    <row r="30" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="BA30" s="16"/>
+    </row>
+    <row r="31" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="BA31" s="16"/>
+    </row>
+    <row r="32" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="BA32" s="16"/>
+    </row>
+    <row r="33" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="BA33" s="16"/>
+    </row>
+    <row r="34" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19"/>
+      <c r="BA34" s="20"/>
+    </row>
+    <row r="35" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="BA35" s="16"/>
+    </row>
+    <row r="36" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="BA36" s="16"/>
+    </row>
+    <row r="37" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="BA37" s="16"/>
+    </row>
+    <row r="38" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="BA38" s="16"/>
+    </row>
+    <row r="39" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="BA39" s="16"/>
+    </row>
+    <row r="40" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="BA40" s="16"/>
+    </row>
+    <row r="41" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="BA41" s="16"/>
+    </row>
+    <row r="42" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="11"/>
+      <c r="BA42" s="16"/>
+    </row>
+    <row r="43" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="19"/>
+      <c r="AK43" s="19"/>
+      <c r="AL43" s="19"/>
+      <c r="AM43" s="19"/>
+      <c r="AN43" s="19"/>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="19"/>
+      <c r="AQ43" s="19"/>
+      <c r="AR43" s="19"/>
+      <c r="AS43" s="19"/>
+      <c r="AT43" s="19"/>
+      <c r="AU43" s="19"/>
+      <c r="AV43" s="19"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="19"/>
+      <c r="AY43" s="19"/>
+      <c r="AZ43" s="19"/>
+      <c r="BA43" s="19"/>
+    </row>
+    <row r="44" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="11"/>
+      <c r="BA44" s="16"/>
+    </row>
+    <row r="45" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="BA45" s="16"/>
+    </row>
+    <row r="46" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="2"/>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A9:BA9"/>
+    <mergeCell ref="A34:BA34"/>
+    <mergeCell ref="A43:BA43"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:S5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:S6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:O1 I1:L1 A44:AK46 G5:G6 V1 AC1 AE1 A35:AK42 A10:AK33" xr:uid="{4145DC3C-95FC-4D68-9FE0-40F502BD1CA9}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AS1" xr:uid="{D7592168-ABB9-40AC-B406-283EC12B9A3E}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/単体テストエビデンス/タスク管理(登録)カバレッジレポート.xlsx
+++ b/単体テストエビデンス/タスク管理(登録)カバレッジレポート.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F65E40-284B-48DA-B4BC-6A51FF05E2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E92A04-5000-41ED-A298-52E5F8C09846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2538,7 +2538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616A29A6-E4F9-4B1E-A989-8DF79DB143C5}">
   <dimension ref="A1:BA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:S5"/>
     </sheetView>
   </sheetViews>

--- a/単体テストエビデンス/タスク管理(登録)カバレッジレポート.xlsx
+++ b/単体テストエビデンス/タスク管理(登録)カバレッジレポート.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7BC77F-B25D-475B-AB2F-10A32C496DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AF7372-E7CA-476C-8FF6-A4BA28675C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="2" r:id="rId1"/>
+    <sheet name="TaskRegisterDAOTest" sheetId="2" r:id="rId1"/>
     <sheet name="TaskEditDAOTest" sheetId="3" r:id="rId2"/>
     <sheet name="UserDAOTest" sheetId="5" r:id="rId3"/>
+    <sheet name="TaskListDAOTest" sheetId="7" r:id="rId4"/>
+    <sheet name="TaskDeleteDAOTest" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>（１）概要</t>
     <rPh sb="3" eb="5">
@@ -102,12 +104,20 @@
     <t>UserDAO</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TaskListDAO</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TaskDeleteDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ 明朝"/>
@@ -156,6 +166,20 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -287,12 +311,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,6 +370,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,9 +449,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{F0ADBF25-EA97-494B-B695-C3935A5C377D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,6 +641,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10296525" cy="2381250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4AA5A74-E1B3-492F-B67D-6543ED1251AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="1905000"/>
+          <a:ext cx="10296525" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10648266" cy="3859292"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C62A96-F442-40F3-B834-68B44498BD88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22411" y="1770529"/>
+          <a:ext cx="10648266" cy="3859292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -805,7 +1004,7 @@
   <dimension ref="A1:BA46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="BF15" sqref="BF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -860,23 +1059,23 @@
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
-      <c r="AO1" s="21" t="s">
+      <c r="AO1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="22">
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="39">
         <v>45890</v>
       </c>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -922,54 +1121,54 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="24" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="26"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="43"/>
     </row>
     <row r="6" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="27">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="44">
         <v>1</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="26"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
     </row>
     <row r="7" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -978,61 +1177,61 @@
       </c>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="20"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="37"/>
     </row>
     <row r="10" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
@@ -1995,61 +2194,61 @@
       <c r="BA33" s="16"/>
     </row>
     <row r="34" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
-      <c r="AP34" s="19"/>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="19"/>
-      <c r="AT34" s="19"/>
-      <c r="AU34" s="19"/>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
-      <c r="BA34" s="20"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36"/>
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="37"/>
     </row>
     <row r="35" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
@@ -2372,61 +2571,61 @@
       <c r="BA42" s="16"/>
     </row>
     <row r="43" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19"/>
-      <c r="AI43" s="19"/>
-      <c r="AJ43" s="19"/>
-      <c r="AK43" s="19"/>
-      <c r="AL43" s="19"/>
-      <c r="AM43" s="19"/>
-      <c r="AN43" s="19"/>
-      <c r="AO43" s="19"/>
-      <c r="AP43" s="19"/>
-      <c r="AQ43" s="19"/>
-      <c r="AR43" s="19"/>
-      <c r="AS43" s="19"/>
-      <c r="AT43" s="19"/>
-      <c r="AU43" s="19"/>
-      <c r="AV43" s="19"/>
-      <c r="AW43" s="19"/>
-      <c r="AX43" s="19"/>
-      <c r="AY43" s="19"/>
-      <c r="AZ43" s="19"/>
-      <c r="BA43" s="19"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="36"/>
+      <c r="AJ43" s="36"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="36"/>
+      <c r="AN43" s="36"/>
+      <c r="AO43" s="36"/>
+      <c r="AP43" s="36"/>
+      <c r="AQ43" s="36"/>
+      <c r="AR43" s="36"/>
+      <c r="AS43" s="36"/>
+      <c r="AT43" s="36"/>
+      <c r="AU43" s="36"/>
+      <c r="AV43" s="36"/>
+      <c r="AW43" s="36"/>
+      <c r="AX43" s="36"/>
+      <c r="AY43" s="36"/>
+      <c r="AZ43" s="36"/>
+      <c r="BA43" s="36"/>
     </row>
     <row r="44" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
@@ -2592,7 +2791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616A29A6-E4F9-4B1E-A989-8DF79DB143C5}">
   <dimension ref="A1:BA46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:S5"/>
     </sheetView>
   </sheetViews>
@@ -2648,23 +2847,23 @@
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
-      <c r="AO1" s="21" t="s">
+      <c r="AO1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="22">
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="39">
         <v>45890</v>
       </c>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2710,54 +2909,54 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="24" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="26"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="43"/>
     </row>
     <row r="6" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="27">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="44">
         <v>1</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="26"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
     </row>
     <row r="7" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2766,61 +2965,61 @@
       </c>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="20"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="37"/>
     </row>
     <row r="10" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
@@ -3783,61 +3982,61 @@
       <c r="BA33" s="16"/>
     </row>
     <row r="34" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
-      <c r="AP34" s="19"/>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="19"/>
-      <c r="AT34" s="19"/>
-      <c r="AU34" s="19"/>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
-      <c r="BA34" s="20"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36"/>
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="37"/>
     </row>
     <row r="35" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
@@ -4160,61 +4359,61 @@
       <c r="BA42" s="16"/>
     </row>
     <row r="43" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19"/>
-      <c r="AI43" s="19"/>
-      <c r="AJ43" s="19"/>
-      <c r="AK43" s="19"/>
-      <c r="AL43" s="19"/>
-      <c r="AM43" s="19"/>
-      <c r="AN43" s="19"/>
-      <c r="AO43" s="19"/>
-      <c r="AP43" s="19"/>
-      <c r="AQ43" s="19"/>
-      <c r="AR43" s="19"/>
-      <c r="AS43" s="19"/>
-      <c r="AT43" s="19"/>
-      <c r="AU43" s="19"/>
-      <c r="AV43" s="19"/>
-      <c r="AW43" s="19"/>
-      <c r="AX43" s="19"/>
-      <c r="AY43" s="19"/>
-      <c r="AZ43" s="19"/>
-      <c r="BA43" s="19"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="36"/>
+      <c r="AJ43" s="36"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="36"/>
+      <c r="AN43" s="36"/>
+      <c r="AO43" s="36"/>
+      <c r="AP43" s="36"/>
+      <c r="AQ43" s="36"/>
+      <c r="AR43" s="36"/>
+      <c r="AS43" s="36"/>
+      <c r="AT43" s="36"/>
+      <c r="AU43" s="36"/>
+      <c r="AV43" s="36"/>
+      <c r="AW43" s="36"/>
+      <c r="AX43" s="36"/>
+      <c r="AY43" s="36"/>
+      <c r="AZ43" s="36"/>
+      <c r="BA43" s="36"/>
     </row>
     <row r="44" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
@@ -4377,8 +4576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2D0A4B-90C9-4555-A05D-28B8CF7235C2}">
   <dimension ref="A1:BA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK27" sqref="AK27"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BN17" sqref="BN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4433,23 +4632,23 @@
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
-      <c r="AO1" s="21" t="s">
+      <c r="AO1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="22">
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="39">
         <v>45894</v>
       </c>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
     </row>
     <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4495,54 +4694,54 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="24" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="26"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="43"/>
     </row>
     <row r="6" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="27">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="44">
         <v>1</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="26"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
     </row>
     <row r="7" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4551,61 +4750,61 @@
       </c>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="20"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="37"/>
     </row>
     <row r="10" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
@@ -5568,61 +5767,61 @@
       <c r="BA33" s="16"/>
     </row>
     <row r="34" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
-      <c r="AP34" s="19"/>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="19"/>
-      <c r="AT34" s="19"/>
-      <c r="AU34" s="19"/>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
-      <c r="BA34" s="20"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36"/>
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="37"/>
     </row>
     <row r="35" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
@@ -5945,61 +6144,61 @@
       <c r="BA42" s="16"/>
     </row>
     <row r="43" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19"/>
-      <c r="AI43" s="19"/>
-      <c r="AJ43" s="19"/>
-      <c r="AK43" s="19"/>
-      <c r="AL43" s="19"/>
-      <c r="AM43" s="19"/>
-      <c r="AN43" s="19"/>
-      <c r="AO43" s="19"/>
-      <c r="AP43" s="19"/>
-      <c r="AQ43" s="19"/>
-      <c r="AR43" s="19"/>
-      <c r="AS43" s="19"/>
-      <c r="AT43" s="19"/>
-      <c r="AU43" s="19"/>
-      <c r="AV43" s="19"/>
-      <c r="AW43" s="19"/>
-      <c r="AX43" s="19"/>
-      <c r="AY43" s="19"/>
-      <c r="AZ43" s="19"/>
-      <c r="BA43" s="19"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="36"/>
+      <c r="AJ43" s="36"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="36"/>
+      <c r="AN43" s="36"/>
+      <c r="AO43" s="36"/>
+      <c r="AP43" s="36"/>
+      <c r="AQ43" s="36"/>
+      <c r="AR43" s="36"/>
+      <c r="AS43" s="36"/>
+      <c r="AT43" s="36"/>
+      <c r="AU43" s="36"/>
+      <c r="AV43" s="36"/>
+      <c r="AW43" s="36"/>
+      <c r="AX43" s="36"/>
+      <c r="AY43" s="36"/>
+      <c r="AZ43" s="36"/>
+      <c r="BA43" s="36"/>
     </row>
     <row r="44" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
@@ -6156,4 +6355,3574 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4DEED9-6D3C-47CA-837F-C3A49A4F6534}">
+  <dimension ref="A1:BA46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.625" style="18"/>
+    <col min="3" max="3" width="2.625" style="19"/>
+    <col min="4" max="5" width="2.625" style="18"/>
+    <col min="6" max="6" width="2.625" style="19"/>
+    <col min="7" max="16384" width="2.625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21"/>
+      <c r="B1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="49">
+        <v>45894</v>
+      </c>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+    </row>
+    <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+    </row>
+    <row r="5" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="53"/>
+    </row>
+    <row r="6" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="54">
+        <v>1</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="53"/>
+    </row>
+    <row r="7" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="47"/>
+    </row>
+    <row r="10" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="BA10" s="24"/>
+    </row>
+    <row r="11" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="BA11" s="24"/>
+    </row>
+    <row r="12" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="BA12" s="24"/>
+    </row>
+    <row r="13" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="26"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="BA13" s="24"/>
+    </row>
+    <row r="14" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="BA14" s="24"/>
+    </row>
+    <row r="15" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="BA15" s="24"/>
+    </row>
+    <row r="16" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="BA16" s="24"/>
+    </row>
+    <row r="17" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="26"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="BA17" s="24"/>
+    </row>
+    <row r="18" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="BA18" s="24"/>
+    </row>
+    <row r="19" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="BA19" s="24"/>
+    </row>
+    <row r="20" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="BA20" s="24"/>
+    </row>
+    <row r="21" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="BA21" s="24"/>
+    </row>
+    <row r="22" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="26"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="BA22" s="24"/>
+    </row>
+    <row r="23" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="BA23" s="24"/>
+    </row>
+    <row r="24" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="26"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="BA24" s="24"/>
+    </row>
+    <row r="25" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="BA25" s="24"/>
+    </row>
+    <row r="26" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="BA26" s="24"/>
+    </row>
+    <row r="27" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="BA27" s="24"/>
+    </row>
+    <row r="28" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="BA28" s="24"/>
+    </row>
+    <row r="29" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="BA29" s="24"/>
+    </row>
+    <row r="30" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="26"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="BA30" s="24"/>
+    </row>
+    <row r="31" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="BA31" s="24"/>
+    </row>
+    <row r="32" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="26"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="BA32" s="24"/>
+    </row>
+    <row r="33" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="26"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="25"/>
+      <c r="AJ33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="BA33" s="24"/>
+    </row>
+    <row r="34" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="46"/>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="46"/>
+      <c r="AJ34" s="46"/>
+      <c r="AK34" s="46"/>
+      <c r="AL34" s="46"/>
+      <c r="AM34" s="46"/>
+      <c r="AN34" s="46"/>
+      <c r="AO34" s="46"/>
+      <c r="AP34" s="46"/>
+      <c r="AQ34" s="46"/>
+      <c r="AR34" s="46"/>
+      <c r="AS34" s="46"/>
+      <c r="AT34" s="46"/>
+      <c r="AU34" s="46"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="47"/>
+    </row>
+    <row r="35" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="BA35" s="24"/>
+    </row>
+    <row r="36" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="26"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="BA36" s="24"/>
+    </row>
+    <row r="37" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="26"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="25"/>
+      <c r="BA37" s="24"/>
+    </row>
+    <row r="38" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="26"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="25"/>
+      <c r="AJ38" s="25"/>
+      <c r="AK38" s="25"/>
+      <c r="BA38" s="24"/>
+    </row>
+    <row r="39" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="26"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="25"/>
+      <c r="AJ39" s="25"/>
+      <c r="AK39" s="25"/>
+      <c r="BA39" s="24"/>
+    </row>
+    <row r="40" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="26"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="25"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+      <c r="BA40" s="24"/>
+    </row>
+    <row r="41" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="26"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="25"/>
+      <c r="AJ41" s="25"/>
+      <c r="AK41" s="25"/>
+      <c r="BA41" s="24"/>
+    </row>
+    <row r="42" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="23"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="25"/>
+      <c r="BA42" s="24"/>
+    </row>
+    <row r="43" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="46"/>
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="46"/>
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="46"/>
+      <c r="AI43" s="46"/>
+      <c r="AJ43" s="46"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="46"/>
+      <c r="AM43" s="46"/>
+      <c r="AN43" s="46"/>
+      <c r="AO43" s="46"/>
+      <c r="AP43" s="46"/>
+      <c r="AQ43" s="46"/>
+      <c r="AR43" s="46"/>
+      <c r="AS43" s="46"/>
+      <c r="AT43" s="46"/>
+      <c r="AU43" s="46"/>
+      <c r="AV43" s="46"/>
+      <c r="AW43" s="46"/>
+      <c r="AX43" s="46"/>
+      <c r="AY43" s="46"/>
+      <c r="AZ43" s="46"/>
+      <c r="BA43" s="46"/>
+    </row>
+    <row r="44" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="28"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="27"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="25"/>
+      <c r="BA44" s="24"/>
+    </row>
+    <row r="45" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="26"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="25"/>
+      <c r="AJ45" s="25"/>
+      <c r="AK45" s="25"/>
+      <c r="BA45" s="24"/>
+    </row>
+    <row r="46" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="23"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="22"/>
+      <c r="AH46" s="22"/>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
+      <c r="AK46" s="22"/>
+      <c r="AL46" s="21"/>
+      <c r="AM46" s="21"/>
+      <c r="AN46" s="21"/>
+      <c r="AO46" s="21"/>
+      <c r="AP46" s="21"/>
+      <c r="AQ46" s="21"/>
+      <c r="AR46" s="21"/>
+      <c r="AS46" s="21"/>
+      <c r="AT46" s="21"/>
+      <c r="AU46" s="21"/>
+      <c r="AV46" s="21"/>
+      <c r="AW46" s="21"/>
+      <c r="AX46" s="21"/>
+      <c r="AY46" s="21"/>
+      <c r="AZ46" s="21"/>
+      <c r="BA46" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A9:BA9"/>
+    <mergeCell ref="A34:BA34"/>
+    <mergeCell ref="A43:BA43"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:S5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:S6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:O1 I1:L1 A44:AK46 G5:G6 V1 AC1 AE1 A35:AK42 A10:AK33" xr:uid="{F7B9C0D0-BBAF-4AF0-95CE-5D20E329AF12}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AS1" xr:uid="{53CD5B99-785F-4203-88AE-9680A9D92997}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E76161F-6FD7-487D-8608-29D4E59AACBD}">
+  <dimension ref="A1:BA46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BK17" sqref="BK17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.625" style="1"/>
+    <col min="3" max="3" width="2.625" style="5"/>
+    <col min="4" max="5" width="2.625" style="1"/>
+    <col min="6" max="6" width="2.625" style="5"/>
+    <col min="7" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="39">
+        <v>45894</v>
+      </c>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+    </row>
+    <row r="2" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+    </row>
+    <row r="5" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="43"/>
+    </row>
+    <row r="6" spans="1:53" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="44">
+        <v>1</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
+    </row>
+    <row r="7" spans="1:53" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="37"/>
+    </row>
+    <row r="10" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="BA10" s="16"/>
+    </row>
+    <row r="11" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="BA11" s="16"/>
+    </row>
+    <row r="12" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="BA12" s="16"/>
+    </row>
+    <row r="13" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="BA13" s="16"/>
+    </row>
+    <row r="14" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="BA14" s="16"/>
+    </row>
+    <row r="15" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="BA15" s="16"/>
+    </row>
+    <row r="16" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="BA16" s="16"/>
+    </row>
+    <row r="17" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="BA17" s="16"/>
+    </row>
+    <row r="18" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="BA18" s="16"/>
+    </row>
+    <row r="19" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="BA19" s="16"/>
+    </row>
+    <row r="20" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="BA20" s="16"/>
+    </row>
+    <row r="21" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="BA21" s="16"/>
+    </row>
+    <row r="22" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="BA22" s="16"/>
+    </row>
+    <row r="23" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="BA23" s="16"/>
+    </row>
+    <row r="24" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="BA24" s="16"/>
+    </row>
+    <row r="25" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="BA25" s="16"/>
+    </row>
+    <row r="26" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="BA26" s="16"/>
+    </row>
+    <row r="27" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="BA27" s="16"/>
+    </row>
+    <row r="28" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="BA28" s="16"/>
+    </row>
+    <row r="29" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="BA29" s="16"/>
+    </row>
+    <row r="30" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="BA30" s="16"/>
+    </row>
+    <row r="31" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="BA31" s="16"/>
+    </row>
+    <row r="32" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="BA32" s="16"/>
+    </row>
+    <row r="33" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="BA33" s="16"/>
+    </row>
+    <row r="34" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36"/>
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="37"/>
+    </row>
+    <row r="35" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="BA35" s="16"/>
+    </row>
+    <row r="36" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="BA36" s="16"/>
+    </row>
+    <row r="37" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="BA37" s="16"/>
+    </row>
+    <row r="38" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="BA38" s="16"/>
+    </row>
+    <row r="39" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="BA39" s="16"/>
+    </row>
+    <row r="40" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="BA40" s="16"/>
+    </row>
+    <row r="41" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="BA41" s="16"/>
+    </row>
+    <row r="42" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="11"/>
+      <c r="BA42" s="16"/>
+    </row>
+    <row r="43" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="36"/>
+      <c r="AJ43" s="36"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="36"/>
+      <c r="AN43" s="36"/>
+      <c r="AO43" s="36"/>
+      <c r="AP43" s="36"/>
+      <c r="AQ43" s="36"/>
+      <c r="AR43" s="36"/>
+      <c r="AS43" s="36"/>
+      <c r="AT43" s="36"/>
+      <c r="AU43" s="36"/>
+      <c r="AV43" s="36"/>
+      <c r="AW43" s="36"/>
+      <c r="AX43" s="36"/>
+      <c r="AY43" s="36"/>
+      <c r="AZ43" s="36"/>
+      <c r="BA43" s="36"/>
+    </row>
+    <row r="44" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="11"/>
+      <c r="BA44" s="16"/>
+    </row>
+    <row r="45" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="BA45" s="16"/>
+    </row>
+    <row r="46" spans="1:53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="2"/>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A9:BA9"/>
+    <mergeCell ref="A34:BA34"/>
+    <mergeCell ref="A43:BA43"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:S5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:S6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:O1 I1:L1 A44:AK46 G5:G6 V1 AC1 AE1 A35:AK42 A10:AK33" xr:uid="{D0C714C6-A00E-48B1-81B9-FE614468BA88}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AS1" xr:uid="{041EC960-A4CF-4951-B0D7-5CFE7403FA07}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>